--- a/doc/Connecteurs-Import/Siham/Doc_et_MOP/Mapping_Siham_Ose/B_Mapping_Num_Tel_SIHAM-OSE_v1.1.xlsx
+++ b/doc/Connecteurs-Import/Siham/Doc_et_MOP/Mapping_Siham_Ose/B_Mapping_Num_Tel_SIHAM-OSE_v1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -218,9 +218,6 @@
     <t xml:space="preserve"> (non visible dans Ose pour l'instant)</t>
   </si>
   <si>
-    <t>maj tél et mail pour OSE</t>
-  </si>
-  <si>
     <t>VACATAIRE</t>
   </si>
   <si>
@@ -234,6 +231,9 @@
   </si>
   <si>
     <t>Quel type de coordonnées pour les colonnes TEL/MAIL de OSE ?</t>
+  </si>
+  <si>
+    <t>v1.1 : maj tél et mail pour OSE</t>
   </si>
 </sst>
 </file>
@@ -831,7 +831,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +848,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>13</v>
@@ -866,13 +866,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="8">
         <v>43370</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>4</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -965,7 +965,7 @@
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>0</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>0</v>
